--- a/templates/AutomationOrg/Add Inventory.xlsx
+++ b/templates/AutomationOrg/Add Inventory.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8D7DCB-8A55-4112-9E33-296AB05C2EE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F74D330C-3758-48AE-A557-FE52247D81D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location Add" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>OH (On Hand Loc)</t>
   </si>
@@ -96,29 +107,23 @@
     <t>10 (Denver)</t>
   </si>
   <si>
-    <t>Loc1</t>
-  </si>
-  <si>
-    <t>Pro-child2 (Serial track)</t>
-  </si>
-  <si>
     <t>Number Of Iteration</t>
   </si>
   <si>
+    <t>Loc-1</t>
+  </si>
+  <si>
     <t>multidiv serial (Lot and serial track)</t>
   </si>
   <si>
     <t>LT-1</t>
-  </si>
-  <si>
-    <t>Loc-1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +143,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -160,10 +171,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,17 +456,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
@@ -478,7 +490,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -546,48 +558,27 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>99</v>
       </c>
+      <c r="K2" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>300</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3">
-        <v>99</v>
-      </c>
-      <c r="K3" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
